--- a/appium_android/title.xlsx
+++ b/appium_android/title.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="81">
   <si>
     <t>Title</t>
   </si>
@@ -33,242 +33,232 @@
     <t>img_content</t>
   </si>
   <si>
-    <t>家里有矿、心中不慌：教你玩转HC、QTUM、DCR、DASH四大币种超牛的PoS钱包挖矿</t>
-  </si>
-  <si>
-    <t>https://www.jinse.com/bitcoin/258073.html</t>
-  </si>
-  <si>
-    <t>“你家有矿啊？”
-“嗯！你咋知道的？”</t>
-  </si>
-  <si>
-    <t>https://img.jinse.com/1241084_image1.png</t>
-  </si>
-  <si>
-    <t>新加坡The New Paper专题报道 | LINFINITY商业落地从“灵芝”开始</t>
-  </si>
-  <si>
-    <t>https://www.jinse.com/member/117388</t>
-  </si>
-  <si>
-    <t>Scientific Tradition，一家新加坡老字号保健品公司，致力于中药保健品的研发与生产，其旗下的长白山灵芝产品在新加坡获得多项产品专利</t>
-  </si>
-  <si>
-    <t>https://img.jinse.com/1241213_image1.png</t>
-  </si>
-  <si>
-    <t>BitMax.io交易所与币事Beshare达成深度战略合作</t>
-  </si>
-  <si>
-    <t>https://www.jinse.com/bitcoin/258072.html</t>
-  </si>
-  <si>
-    <t>BitMax.io所宣布与数字货币二级市场深度服务商「币事Beshare」达成深度战略合作</t>
-  </si>
-  <si>
-    <t>https://img.jinse.com/1241051_image1.png</t>
-  </si>
-  <si>
-    <t>关于差价合约  你需要了解这些小知识</t>
-  </si>
-  <si>
-    <t>https://www.jinse.com/member/153045</t>
-  </si>
-  <si>
-    <t>差价合约：亦称为CFD，起源于英国伦敦。它是一种交易双方为了一种资产的未来值与现值的差价进行的买卖交易。交易双方不交割真实资产，而只交割差价。交易者可以利用杠杆</t>
-  </si>
-  <si>
-    <t>https://img.jinse.com/1241065_image1.png</t>
-  </si>
-  <si>
-    <t>向死而生</t>
-  </si>
-  <si>
-    <t>https://www.jinse.com/bitcoin/258071.html</t>
-  </si>
-  <si>
-    <t>莫为浮云遮望眼，投资曙光将到来。千难万险只等闲，迎来春色换人间。千金散尽还复来，币圈让你发大财。迎风而立破浪前行，逢低布局顺势而为。</t>
-  </si>
-  <si>
-    <t>https://img.jinse.com/1241067_image1.png</t>
-  </si>
-  <si>
-    <t>详解：比特币ETF申请为何被拒？</t>
-  </si>
-  <si>
-    <t>https://www.jinse.com/member/101777</t>
-  </si>
-  <si>
-    <t>最近，ETF申请提案成为了加密市场的热点话题，并对比特币的价格走势产生了重要影响。</t>
-  </si>
-  <si>
-    <t>https://img.jinse.com/1241035_image1.png</t>
-  </si>
-  <si>
-    <t>比特币禁令引发“矿难”: 大量矿机被抛售, 2000元显卡800就卖</t>
-  </si>
-  <si>
-    <t>https://www.jinse.com/bitcoin/258070.html</t>
-  </si>
-  <si>
-    <t>尽管比特币始终死守2万人民币大关，上下游仍然受到牵连。在“监管层下一步会取消中国矿池”的传言下，矿机开始被抛售。</t>
-  </si>
-  <si>
-    <t>https://img.jinse.com/1241052_image1.png</t>
-  </si>
-  <si>
-    <t>全国巡回开发者沙龙武汉站收官  Egretia创始人黄竣出席并发表讲话</t>
-  </si>
-  <si>
-    <t>https://www.jinse.com/member/135184</t>
-  </si>
-  <si>
-    <t>10月19日，由Egretia和白鹭科技共同打造的“全国巡回开发者沙龙.武汉站”在江城隆重举办，主办方Egretia创始人黄竣出席活动并发表主题演讲。</t>
-  </si>
-  <si>
-    <t>https://img.jinse.com/1241058_image1.png</t>
-  </si>
-  <si>
-    <t>5分钟掌握ITC项目最新进展——中文社区问答回顾(2018.10.12)</t>
-  </si>
-  <si>
-    <t>https://www.jinse.com/bitcoin/258069.html</t>
-  </si>
-  <si>
-    <t>关于ITC万物链的项目进展回顾，最新社区答疑整理。</t>
-  </si>
-  <si>
-    <t>https://img.jinse.com/1241030_image1.png</t>
-  </si>
-  <si>
-    <t>落地有声 刘昌用——币圈乱象百态生 不吐不快真学者</t>
-  </si>
-  <si>
-    <t>https://www.jinse.com/member/187850</t>
-  </si>
-  <si>
-    <t>我不是喜欢写作，我只是希望通过文字让更多的人了解比特币。</t>
-  </si>
-  <si>
-    <t>https://img.jinse.com/1241044_image1.png</t>
-  </si>
-  <si>
-    <t>币圈三故事：有人挣了一千万 有人深夜无眠</t>
-  </si>
-  <si>
-    <t>https://www.jinse.com/bitcoin/258068.html</t>
-  </si>
-  <si>
-    <t>但无论是身经百战的币圈大佬，还是忙着赚钱或还债的普通人，夜晚总归都要睡觉。</t>
-  </si>
-  <si>
-    <t>https://img.jinse.com/1241048_image1.png</t>
-  </si>
-  <si>
-    <t>金色学院创业营第十期正式开课 传统与变革中方显转型之机</t>
-  </si>
-  <si>
-    <t>https://www.jinse.com/member/197880</t>
-  </si>
-  <si>
-    <t>10月19日，由金色学院创业营主办的第十期金色学院在北京桃花源实验室正式开课。来自多领域的新老学员们共聚一堂，针对《传统企业区块链转型概念与应用》课题进行为期三天的探索。</t>
-  </si>
-  <si>
-    <t>https://img.jinse.com/1241043_image1.png</t>
-  </si>
-  <si>
-    <t>超导链SCT技术应用、免费为企业上链</t>
-  </si>
-  <si>
-    <t>https://www.jinse.com/bitcoin/258067.html</t>
-  </si>
-  <si>
-    <t>当前互联网正处于过度中心化的阶段,企业、商家、用户、所有互联网每一个节点上的权益相关人都被这种高度中心化薅尽了羊毛，区块链的诞生可谓符合“天时地利人和”，而在近</t>
-  </si>
-  <si>
-    <t>https://img.jinse.com/1240884_image1.png</t>
-  </si>
-  <si>
-    <t>百万财经分析：稳定币还未稳定  火币抢滩登陆</t>
-  </si>
-  <si>
-    <t>稳定币还未稳定，火币抢滩登陆？</t>
-  </si>
-  <si>
-    <t>https://img.jinse.com/1241026_image1.png</t>
-  </si>
-  <si>
-    <t>「周报No.43」ITC项目进展更新2018/10/13-10/19</t>
-  </si>
-  <si>
-    <t>https://www.jinse.com/bitcoin/258066.html</t>
-  </si>
-  <si>
-    <t>本周研发进度：ITC钱包Beta版开放社区测试；构建部分增加 electron 构建集成，docker image集成……</t>
-  </si>
-  <si>
-    <t>https://img.jinse.com/1240997_image1.png</t>
-  </si>
-  <si>
-    <t>维基小报42期</t>
-  </si>
-  <si>
-    <t>https://www.jinse.com/member/184180</t>
-  </si>
-  <si>
-    <t>国家互联网信息办公室发布关于《区块链信息服务管理规定（征求意见稿）》</t>
-  </si>
-  <si>
-    <t>https://img.jinse.com/1240999_image1.png</t>
-  </si>
-  <si>
-    <t>美国欲掌控数字货币市场</t>
-  </si>
-  <si>
-    <t>https://www.jinse.com/bitcoin/258065.html</t>
-  </si>
-  <si>
-    <t>因为其得到美国纽约州金融服务局的批准，所以在监管层面上有了可以对其进行监督的机构，自然会令投资者对这类币种的真正稳定作用有很大信心。</t>
-  </si>
-  <si>
-    <t>https://img.jinse.com/1240998_image1.png</t>
-  </si>
-  <si>
-    <t>​十分钟读完《韭菜的自我修养》</t>
-  </si>
-  <si>
-    <t>https://www.jinse.com/member/47528</t>
-  </si>
-  <si>
-    <t>币学君花了半天时间，系统看完了这本被广大币友戏称为李笑来用来“割韭菜”的书。并从《韭菜的自我修养》这本书中，提炼出24个重点干货内容供大家先睹为快。</t>
-  </si>
-  <si>
-    <t>https://img.jinse.com/1240424_image1.png</t>
-  </si>
-  <si>
-    <t>SAC“链上生态”全球高峰论坛即将开幕</t>
-  </si>
-  <si>
-    <t>https://www.jinse.com/bitcoin/258064.html</t>
-  </si>
-  <si>
-    <t>SAC智能应用链也将一如既往助力行业的发展，把区块链的技术优势带给不同行业的应用者。</t>
-  </si>
-  <si>
-    <t>https://img.jinse.com/1240980_image1.png</t>
-  </si>
-  <si>
-    <t>大西安链改启动仪式圆满落幕</t>
-  </si>
-  <si>
-    <t>https://www.jinse.com/member/175893</t>
-  </si>
-  <si>
-    <t>10月19日，2018陕西省互联网大会——区块链技术峰会暨大西安链改启动仪式在陕西师范大学新勇活动中心成功举办。</t>
-  </si>
-  <si>
-    <t>https://img.jinse.com/1240953_image1.png</t>
+    <t>区块链软件：区块链+游戏——传统游戏改造的重要支撑</t>
+  </si>
+  <si>
+    <t>https://www.jinse.com/bitcoin/277380.html</t>
+  </si>
+  <si>
+    <t>比特币的大火，给传统领域带来了一项新兴的技术——区块链技术，1316--131-7192各传统领域纷纷采取积极的态度去接纳这一新技术的落地实施。其中，公认的最适</t>
+  </si>
+  <si>
+    <t>https://img.jinse.com/1350421_image1.png</t>
+  </si>
+  <si>
+    <t>币安创始人自曝卖房抄底比特币 血本无归</t>
+  </si>
+  <si>
+    <t>https://www.jinse.com/member/211954</t>
+  </si>
+  <si>
+    <t>赵长鹏自曝自己曾经卖房抄底比特币遭遇血本无归的故事</t>
+  </si>
+  <si>
+    <t>https://img.jinse.com/1350423_image1.png</t>
+  </si>
+  <si>
+    <t>美国SEC：关于数字资产证券发行和交易的声明</t>
+  </si>
+  <si>
+    <t>https://www.jinse.com/bitcoin/277379.html</t>
+  </si>
+  <si>
+    <t>2018年11月16日，美国证监会（SEC）官网发表公开声明《数字资产证券发行与交易声明》（Statement on Digital AssetSecuriti</t>
+  </si>
+  <si>
+    <t>https://img.jinse.com/1350191_image1.png</t>
+  </si>
+  <si>
+    <t>EOS官方承认高位套现40亿美元 拒绝公布资金使用情况</t>
+  </si>
+  <si>
+    <t>https://www.jinse.com/member/22551</t>
+  </si>
+  <si>
+    <t>这些钱用到哪里去了，官方既没有说明过，亦无独立的三方机构进行审计</t>
+  </si>
+  <si>
+    <t>https://img.jinse.com/1350393_image1.png</t>
+  </si>
+  <si>
+    <t>下一步币圈的方向在哪里？</t>
+  </si>
+  <si>
+    <t>https://www.jinse.com/bitcoin/277378.html</t>
+  </si>
+  <si>
+    <t>看跌合约价格高时卖出，低时买入即可。</t>
+  </si>
+  <si>
+    <t>https://img.jinse.com/1350390_image1.png</t>
+  </si>
+  <si>
+    <t>原新加坡金融管理局学院院长白士泮：拿捏监管力度 平衡创新与安全</t>
+  </si>
+  <si>
+    <t>https://www.jinse.com/member/65628</t>
+  </si>
+  <si>
+    <t>2018 年 11 月 16 日新加坡普惠金融峰会上，DRC 基金会创始人林扬专访原新加坡金融管理局学院院长、新加坡李白金融学院院长、DRC 顾问白士泮博士。</t>
+  </si>
+  <si>
+    <t>https://img.jinse.com/1350385_image1.png</t>
+  </si>
+  <si>
+    <t>李嘉诚说成为现实 上亿人春节过后将会来不及 马云 实话</t>
+  </si>
+  <si>
+    <t>https://www.jinse.com/bitcoin/277377.html</t>
+  </si>
+  <si>
+    <t>因为李嘉诚的钱基本上都是自己的钱，负债很低，而内地的房地产企业基本上都属于高负债的企业，正常都在70%左右，想退出都非常的难。</t>
+  </si>
+  <si>
+    <t>https://img.jinse.com/1350384_image1.png</t>
+  </si>
+  <si>
+    <t>京东突然宣布 全国猪农沸腾了 网友 养猪20年 才知对手是强东</t>
+  </si>
+  <si>
+    <t>对于养猪这一传统的农牧行业来说，接地气的京东可能要比网易和阿里更加具有群众基础。</t>
+  </si>
+  <si>
+    <t>https://img.jinse.com/1350376_image1.png</t>
+  </si>
+  <si>
+    <t>区块链——如何打破生产关系对生产力的束缚</t>
+  </si>
+  <si>
+    <t>https://www.jinse.com/bitcoin/277376.html</t>
+  </si>
+  <si>
+    <t>寻找答案的过程是不断接近真理，不断取得进步的过程。</t>
+  </si>
+  <si>
+    <t>https://img.jinse.com/1350368_image1.png</t>
+  </si>
+  <si>
+    <t>Bitcoin.com矿池所有的哈希都指向BCHABC</t>
+  </si>
+  <si>
+    <t>https://www.jinse.com/member/213942</t>
+  </si>
+  <si>
+    <t>根据Bitcoin.com挖掘界面仪表盘上的一份声明，Roger Ver的Bitcoin.com挖矿池用户正在挖掘比特币现金ABC，以支持持续存在争议的硬分叉技</t>
+  </si>
+  <si>
+    <t>https://img.jinse.com/1350370_image1.png</t>
+  </si>
+  <si>
+    <t>中国最年轻女富婆 80后的她与丈夫白手起家 不到十年赚来百亿</t>
+  </si>
+  <si>
+    <t>https://www.jinse.com/bitcoin/277375.html</t>
+  </si>
+  <si>
+    <t>吴艳曾表示：“我一直觉得老天对男女的分工各有不同，男性擅长开拓进攻，女性擅长防守和庇佑。”正是两人的默契，才成就了今天的事业。</t>
+  </si>
+  <si>
+    <t>https://img.jinse.com/1350353_image1.png</t>
+  </si>
+  <si>
+    <t>FEC针对是否接受加密货币进行整治竞选发起征集</t>
+  </si>
+  <si>
+    <t>美国联邦选举委员会(FEC)发布了一份咨询意见，允许个人通过捐赠他们的计算机能力来为他们最喜欢的候选人挖掘密码来为政治竞选做贡献。</t>
+  </si>
+  <si>
+    <t>https://img.jinse.com/1350346_image1.png</t>
+  </si>
+  <si>
+    <t>短期底部确认  或将迎来反弹  目标5400点—5800点</t>
+  </si>
+  <si>
+    <t>https://www.jinse.com/bitcoin/277374.html</t>
+  </si>
+  <si>
+    <t>在以后的币圈江湖上好歹也有你见证本轮爆跌的足迹，几年后再次爆跌时，你和新韭菜边喝酒边吹牛逼讲述你今天的英明抉择顺便给别人充值信仰岂不快哉？</t>
+  </si>
+  <si>
+    <t>https://img.jinse.com/1350345_image1.png</t>
+  </si>
+  <si>
+    <t>比王健林分析更准确 李嘉诚预测 大陆房子未来8年的价格走势</t>
+  </si>
+  <si>
+    <t>https://www.jinse.com/member/208823</t>
+  </si>
+  <si>
+    <t>李嘉诚：我一直讲，如果你有现金，而且是买来自己住的，就没有关系。</t>
+  </si>
+  <si>
+    <t>https://img.jinse.com/1350338_image1.png</t>
+  </si>
+  <si>
+    <t>FPGA矿机横空出世 专业化挖矿之门开启 | 2011年</t>
+  </si>
+  <si>
+    <t>https://www.jinse.com/bitcoin/277373.html</t>
+  </si>
+  <si>
+    <t>无论是CPU挖矿还是GPU挖矿，都要整台电脑都要开机运算，其中很多电量消耗浪费在了不必要的配件上。所以为了追求能耗比与利益最大化，FPGA矿机横空出世。</t>
+  </si>
+  <si>
+    <t>https://img.jinse.com/1350333_image1.png</t>
+  </si>
+  <si>
+    <t>矿池新经济赋能 链易CE,COOL去中心化未来</t>
+  </si>
+  <si>
+    <t>由链易CE.COOL出让交易费，“超级矿池交易板块”出让收益权</t>
+  </si>
+  <si>
+    <t>https://img.jinse.com/1252687_image1.png</t>
+  </si>
+  <si>
+    <t>币市股市同时下挫或因08金融危机救市资金回撤“蝴蝶效应”|okfine赞助</t>
+  </si>
+  <si>
+    <t>https://www.jinse.com/bitcoin/277372.html</t>
+  </si>
+  <si>
+    <t>加密货币市场已经经历了长达一周时间的低迷表现，比特币价格甚至跌至近 14 个月以来的最低点，然而对于那些希望逃离“币市”重新回到“股市”的投资者而言，传统股票市</t>
+  </si>
+  <si>
+    <t>https://img.jinse.com/1350332_image1.png</t>
+  </si>
+  <si>
+    <t>比特币再次暴跌650美金的过程中到底该如何才能抓到这波空头呢</t>
+  </si>
+  <si>
+    <t>https://www.jinse.com/member/181643</t>
+  </si>
+  <si>
+    <t>比特币整理处于空头格局不变</t>
+  </si>
+  <si>
+    <t>https://img.jinse.com/1350322_image1.png</t>
+  </si>
+  <si>
+    <t>二哥论币 | BTC实时分析及操作指南 （2018.11.22 PM 01:00）</t>
+  </si>
+  <si>
+    <t>https://www.jinse.com/bitcoin/277371.html</t>
+  </si>
+  <si>
+    <t>https://img.jinse.com/1149269_image1.png</t>
+  </si>
+  <si>
+    <t>27岁成顶级富豪 背后是年入4130亿的家族企业</t>
+  </si>
+  <si>
+    <t>https://www.jinse.com/member/208068</t>
+  </si>
+  <si>
+    <t>后来章泽天的父亲曾上门找过张近东，要将女儿介绍给其儿子张康阳，但后来张康阳拒绝了</t>
+  </si>
+  <si>
+    <t>https://img.jinse.com/1350301_image1.png</t>
   </si>
 </sst>
 </file>
@@ -1374,181 +1364,181 @@
         <v>33</v>
       </c>
       <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
         <v>34</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>35</v>
-      </c>
-      <c r="D9" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" t="s">
         <v>37</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>38</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>39</v>
-      </c>
-      <c r="D10" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" t="s">
         <v>41</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>42</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>43</v>
-      </c>
-      <c r="D11" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" t="s">
         <v>45</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>46</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>47</v>
-      </c>
-      <c r="D12" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
         <v>49</v>
       </c>
-      <c r="B13" t="s">
+      <c r="D13" t="s">
         <v>50</v>
-      </c>
-      <c r="C13" t="s">
-        <v>51</v>
-      </c>
-      <c r="D13" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" t="s">
         <v>53</v>
       </c>
-      <c r="B14" t="s">
+      <c r="D14" t="s">
         <v>54</v>
-      </c>
-      <c r="C14" t="s">
-        <v>55</v>
-      </c>
-      <c r="D14" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" t="s">
         <v>57</v>
       </c>
-      <c r="B15" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>58</v>
-      </c>
-      <c r="D15" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" t="s">
         <v>60</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>61</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>62</v>
-      </c>
-      <c r="D16" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" t="s">
         <v>64</v>
       </c>
-      <c r="B17" t="s">
+      <c r="D17" t="s">
         <v>65</v>
-      </c>
-      <c r="C17" t="s">
-        <v>66</v>
-      </c>
-      <c r="D17" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" t="s">
         <v>68</v>
       </c>
-      <c r="B18" t="s">
+      <c r="D18" t="s">
         <v>69</v>
-      </c>
-      <c r="C18" t="s">
-        <v>70</v>
-      </c>
-      <c r="D18" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" t="s">
         <v>72</v>
       </c>
-      <c r="B19" t="s">
+      <c r="D19" t="s">
         <v>73</v>
-      </c>
-      <c r="C19" t="s">
-        <v>74</v>
-      </c>
-      <c r="D19" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
+        <v>74</v>
+      </c>
+      <c r="B20" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" t="s">
+        <v>74</v>
+      </c>
+      <c r="D20" t="s">
         <v>76</v>
-      </c>
-      <c r="B20" t="s">
-        <v>77</v>
-      </c>
-      <c r="C20" t="s">
-        <v>78</v>
-      </c>
-      <c r="D20" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
+        <v>77</v>
+      </c>
+      <c r="B21" t="s">
+        <v>78</v>
+      </c>
+      <c r="C21" t="s">
+        <v>79</v>
+      </c>
+      <c r="D21" t="s">
         <v>80</v>
-      </c>
-      <c r="B21" t="s">
-        <v>81</v>
-      </c>
-      <c r="C21" t="s">
-        <v>82</v>
-      </c>
-      <c r="D21" t="s">
-        <v>83</v>
       </c>
     </row>
   </sheetData>
